--- a/swings/2021-11-22/BINANCE_SPOT_MANA_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_MANA_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>3.5221</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>3.8559</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>3.7704</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +833,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>3.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>3.7987</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -979,6 +1002,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1057,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1110,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1165,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>3.7926</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1191,6 +1222,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>3.846</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1277,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>3.6653</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1387,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1440,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1495,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>3.7464</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1507,6 +1550,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1603,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>3.5975</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1768,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>3.7063</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1771,6 +1823,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1823,6 +1876,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1875,6 +1929,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1927,6 +1982,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1979,6 +2035,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2033,6 +2090,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>3.5801</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2147,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O31" t="n">
+        <v>3.619</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2257,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>3.528</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2245,6 +2312,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2297,6 +2365,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2349,6 +2418,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2403,6 +2473,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>3.6938</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2457,6 +2530,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>3.6503</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2509,6 +2585,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2561,6 +2638,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2613,6 +2691,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2665,6 +2744,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2719,6 +2799,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>3.8342</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2771,6 +2854,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2825,6 +2909,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>3.7363</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2879,6 +2966,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>3.7919</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2931,6 +3021,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2983,6 +3074,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3037,6 +3129,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>3.704</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3091,6 +3186,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>3.7427</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3143,6 +3241,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3197,6 +3296,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>3.704</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3251,6 +3353,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>3.78</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3303,6 +3408,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3357,6 +3463,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>3.7269</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3409,6 +3518,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3463,6 +3573,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3515,6 +3628,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3567,6 +3681,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3619,6 +3734,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3671,6 +3787,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3725,6 +3842,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>3.6405</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3777,6 +3897,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3829,6 +3950,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3883,6 +4005,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>3.7098</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3935,6 +4060,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3989,6 +4115,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>3.668</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4041,6 +4170,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4093,6 +4223,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4145,6 +4276,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4197,6 +4329,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4251,6 +4384,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>3.8345</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4305,6 +4441,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>3.7532</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4357,6 +4496,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4409,6 +4549,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4463,6 +4604,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>3.9553</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4515,6 +4659,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4567,6 +4712,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4619,6 +4765,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4671,6 +4818,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4725,6 +4873,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>3.7527</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4777,6 +4928,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4831,6 +4983,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>3.9137</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4883,6 +5038,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4937,6 +5093,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>3.8198</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4991,6 +5150,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>3.8931</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5045,6 +5207,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>3.8304</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5097,6 +5262,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5151,6 +5317,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>3.878</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5203,6 +5372,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5257,6 +5427,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>3.7844</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5309,6 +5482,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5363,6 +5537,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>3.9466</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5415,6 +5592,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5469,6 +5647,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>3.8711</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5523,6 +5704,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>3.9306</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5575,6 +5759,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5627,6 +5812,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5681,6 +5867,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>3.8691</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5733,6 +5922,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5785,6 +5975,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5837,6 +6028,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5891,6 +6083,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>4.039</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5945,6 +6140,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>3.927</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5999,6 +6197,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>4.0343</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6051,6 +6252,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6103,6 +6305,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6155,6 +6358,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6207,6 +6411,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6259,6 +6464,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6311,6 +6517,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6363,6 +6570,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6415,6 +6623,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6467,6 +6676,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6521,6 +6731,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>3.8026</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6573,6 +6786,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6625,6 +6839,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6677,6 +6892,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6729,6 +6945,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6781,6 +6998,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6835,6 +7053,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>3.9657</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6889,6 +7110,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>3.8754</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6943,6 +7167,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>3.9484</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6995,6 +7222,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7049,6 +7277,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>3.8602</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7103,6 +7334,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>3.927</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7157,6 +7391,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>3.8587</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7211,6 +7448,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>3.9749</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7263,6 +7503,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7317,6 +7558,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>3.8914</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7371,6 +7615,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>3.9283</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7423,6 +7670,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7477,6 +7725,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>3.863</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7529,6 +7780,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7581,6 +7833,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7633,6 +7886,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7685,6 +7939,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7737,6 +7992,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7789,6 +8045,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7843,6 +8100,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>3.9724</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7897,6 +8157,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>3.9296</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7949,6 +8212,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8001,6 +8265,7 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8055,6 +8320,9 @@
           <t>MANAUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>4.11</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8108,6 +8376,9 @@
         <is>
           <t>MANAUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>4.0531</v>
       </c>
     </row>
   </sheetData>
